--- a/biology/Zoologie/Demodex_canis/Demodex_canis.xlsx
+++ b/biology/Zoologie/Demodex_canis/Demodex_canis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Demodex canis est une espèce d'acariens de la famille des Demodecidae. Elle est commensale de la peau du chien dont elle fait partie de la flore normale (dans le follicule pileux) et est présente en très petit nombre.
 Lorsque le système immunitaire de l'organisme hôte est déficient ou que celui-ci est affaibli par une autre pathologie, cet acarien peut proliférer et entraîner des lésions cutanées locales ou généralisées. C'est ce qu'on appelle la démodécie du chien.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 décembre 2019) :
 sous-espèce Demodex canis canis Leydig, 1859
 sous-espèce Demodex canis ovis Railliet, 1895</t>
         </is>
